--- a/output/carin-rtpbc-patient.xlsx
+++ b/output/carin-rtpbc-patient.xlsx
@@ -5387,7 +5387,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>43</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
